--- a/data/vis/Table_S1.xlsx
+++ b/data/vis/Table_S1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="444">
   <si>
     <t>Locus</t>
   </si>
@@ -409,15 +409,15 @@
     <t>FGA</t>
   </si>
   <si>
+    <t>CTAGCTTGTAAATA-TG</t>
+  </si>
+  <si>
     <t>[GGAA]2 GGAG [AAAG]8 AGAA AAAA [GAAA]3</t>
   </si>
   <si>
     <t>CCAGCAAAAAAGAAAGGAAGAAA</t>
   </si>
   <si>
-    <t>CTAGCTTGTAAATATGC</t>
-  </si>
-  <si>
     <t>[GGAA]2 GGAG [AAAG]10 AGAA AAAA [GAAA]3</t>
   </si>
   <si>
@@ -460,45 +460,7 @@
     <t>[GGAA]2 GGAG [AAAG]16 AGAA AAAA [GAAA]3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="2"/>
-      </rPr>
-      <t>CTAGCTTGTAAATA</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier New"/>
-        <family val="2"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier New"/>
-        <family val="2"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Courier New"/>
-        <family val="2"/>
-      </rPr>
-      <t>G</t>
-    </r>
+    <t>CTAGCTTGTAAATAATG</t>
   </si>
   <si>
     <t>[GGAA]2 GGAG AAAG AAAC [AAAG]14 AGAA AAAA [GAAA]3</t>
@@ -4929,7 +4891,9 @@
         <v>0.019</v>
       </c>
       <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
+      <c r="H121" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
@@ -4939,7 +4903,7 @@
         <v>16</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1">
@@ -4949,10 +4913,10 @@
         <v>0.0024</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4973,10 +4937,10 @@
         <v>0.0071</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5013,10 +4977,10 @@
         <v>0.0024</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5037,10 +5001,10 @@
         <v>0.0738</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5077,10 +5041,10 @@
         <v>0.15</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5101,10 +5065,10 @@
         <v>0.2119</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5125,10 +5089,10 @@
         <v>0.0024</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5149,10 +5113,10 @@
         <v>0.1786</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5173,10 +5137,10 @@
         <v>0.0143</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5197,10 +5161,10 @@
         <v>0.1167</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5237,10 +5201,10 @@
         <v>0.0048</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5261,9 +5225,9 @@
         <v>0.0071</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H136" t="s">
+        <v>124</v>
+      </c>
+      <c r="H136" s="1" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5285,10 +5249,10 @@
         <v>0.1167</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5341,10 +5305,10 @@
         <v>0.0024</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5365,10 +5329,10 @@
         <v>0.0571</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5405,10 +5369,10 @@
         <v>0.0286</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5429,10 +5393,10 @@
         <v>0.0048</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:8">

--- a/data/vis/Table_S1.xlsx
+++ b/data/vis/Table_S1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="444">
   <si>
     <t>Locus</t>
   </si>
@@ -409,15 +409,15 @@
     <t>FGA</t>
   </si>
   <si>
-    <t>CTAGCTTGTAAATA-TG</t>
-  </si>
-  <si>
     <t>[GGAA]2 GGAG [AAAG]8 AGAA AAAA [GAAA]3</t>
   </si>
   <si>
     <t>CCAGCAAAAAAGAAAGGAAGAAA</t>
   </si>
   <si>
+    <t>CTAGCTTGTAAATATGC</t>
+  </si>
+  <si>
     <t>[GGAA]2 GGAG [AAAG]10 AGAA AAAA [GAAA]3</t>
   </si>
   <si>
@@ -460,7 +460,45 @@
     <t>[GGAA]2 GGAG [AAAG]16 AGAA AAAA [GAAA]3</t>
   </si>
   <si>
-    <t>CTAGCTTGTAAATAATG</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="2"/>
+      </rPr>
+      <t>CTAGCTTGTAAATA</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Courier New"/>
+        <family val="2"/>
+      </rPr>
+      <t>G</t>
+    </r>
   </si>
   <si>
     <t>[GGAA]2 GGAG AAAG AAAC [AAAG]14 AGAA AAAA [GAAA]3</t>
@@ -4891,9 +4929,7 @@
         <v>0.019</v>
       </c>
       <c r="G121" s="1"/>
-      <c r="H121" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1" t="s">
@@ -4903,7 +4939,7 @@
         <v>16</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1">
@@ -4913,10 +4949,10 @@
         <v>0.0024</v>
       </c>
       <c r="G122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H122" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4937,10 +4973,10 @@
         <v>0.0071</v>
       </c>
       <c r="G123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H123" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4977,10 +5013,10 @@
         <v>0.0024</v>
       </c>
       <c r="G125" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H125" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5001,10 +5037,10 @@
         <v>0.0738</v>
       </c>
       <c r="G126" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5041,10 +5077,10 @@
         <v>0.15</v>
       </c>
       <c r="G128" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5065,10 +5101,10 @@
         <v>0.2119</v>
       </c>
       <c r="G129" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H129" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5089,10 +5125,10 @@
         <v>0.0024</v>
       </c>
       <c r="G130" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5113,10 +5149,10 @@
         <v>0.1786</v>
       </c>
       <c r="G131" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H131" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5137,10 +5173,10 @@
         <v>0.0143</v>
       </c>
       <c r="G132" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H132" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5161,10 +5197,10 @@
         <v>0.1167</v>
       </c>
       <c r="G133" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5201,10 +5237,10 @@
         <v>0.0048</v>
       </c>
       <c r="G135" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H135" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5225,9 +5261,9 @@
         <v>0.0071</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H136" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H136" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5249,10 +5285,10 @@
         <v>0.1167</v>
       </c>
       <c r="G137" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H137" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5305,10 +5341,10 @@
         <v>0.0024</v>
       </c>
       <c r="G140" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H140" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5329,10 +5365,10 @@
         <v>0.0571</v>
       </c>
       <c r="G141" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H141" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5369,10 +5405,10 @@
         <v>0.0286</v>
       </c>
       <c r="G143" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H143" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5393,10 +5429,10 @@
         <v>0.0048</v>
       </c>
       <c r="G144" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H144" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="145" spans="1:8">
